--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_DLTienLong.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_DLTienLong.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102V" sheetId="27" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="78">
   <si>
     <t>STT</t>
   </si>
@@ -764,6 +764,30 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -785,34 +809,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1122,8 +1122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1154,43 +1154,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="99" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="99"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="67"/>
@@ -1235,58 +1235,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="93" t="s">
+      <c r="K4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="93"/>
-      <c r="M4" s="101" t="s">
+      <c r="L4" s="91"/>
+      <c r="M4" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="101" t="s">
+      <c r="N4" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="93" t="s">
+      <c r="O4" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="92" t="s">
+      <c r="P4" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="93" t="s">
+      <c r="Q4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="93" t="s">
+      <c r="R4" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="94" t="s">
+      <c r="S4" s="101" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="93" t="s">
+      <c r="V4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="93" t="s">
+      <c r="W4" s="91" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="100"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="56" t="s">
         <v>1</v>
       </c>
@@ -1311,24 +1311,24 @@
       <c r="I5" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="93"/>
+      <c r="J5" s="91"/>
       <c r="K5" s="56" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="102"/>
-      <c r="N5" s="102"/>
-      <c r="O5" s="93"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="93"/>
-      <c r="R5" s="93"/>
-      <c r="S5" s="95"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="102"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="93"/>
-      <c r="W5" s="93"/>
+      <c r="V5" s="91"/>
+      <c r="W5" s="91"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="T6" s="27"/>
       <c r="U6" s="62"/>
-      <c r="V6" s="86" t="s">
+      <c r="V6" s="94" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -1413,7 +1413,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="62"/>
-      <c r="V7" s="87"/>
+      <c r="V7" s="95"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1442,7 +1442,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="62"/>
-      <c r="V8" s="87"/>
+      <c r="V8" s="95"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1471,7 +1471,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="62"/>
       <c r="U9" s="62"/>
-      <c r="V9" s="87"/>
+      <c r="V9" s="95"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -1500,7 +1500,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="62"/>
       <c r="U10" s="62"/>
-      <c r="V10" s="87"/>
+      <c r="V10" s="95"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1529,7 +1529,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="62"/>
       <c r="U11" s="62"/>
-      <c r="V11" s="87"/>
+      <c r="V11" s="95"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1558,7 +1558,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="62"/>
       <c r="U12" s="62"/>
-      <c r="V12" s="86" t="s">
+      <c r="V12" s="94" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -1589,7 +1589,7 @@
       <c r="S13" s="58"/>
       <c r="T13" s="62"/>
       <c r="U13" s="62"/>
-      <c r="V13" s="87"/>
+      <c r="V13" s="95"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1618,7 +1618,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="62"/>
       <c r="U14" s="62"/>
-      <c r="V14" s="87"/>
+      <c r="V14" s="95"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1647,7 +1647,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="62"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="87"/>
+      <c r="V15" s="95"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1676,7 +1676,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="62"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="88"/>
+      <c r="V16" s="96"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2910,10 +2910,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="89" t="s">
+      <c r="V56" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="89">
+      <c r="W56" s="97">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -2942,8 +2942,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="90"/>
-      <c r="W57" s="90"/>
+      <c r="V57" s="98"/>
+      <c r="W57" s="98"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -2969,8 +2969,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="91"/>
-      <c r="W58" s="91"/>
+      <c r="V58" s="99"/>
+      <c r="W58" s="99"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -4257,6 +4257,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -4267,16 +4277,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4287,8 +4287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4319,43 +4319,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="99" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="99"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
@@ -4400,58 +4400,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="93" t="s">
+      <c r="K4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="93"/>
-      <c r="M4" s="101" t="s">
+      <c r="L4" s="91"/>
+      <c r="M4" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="101" t="s">
+      <c r="N4" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="93" t="s">
+      <c r="O4" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="92" t="s">
+      <c r="P4" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="93" t="s">
+      <c r="Q4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="93" t="s">
+      <c r="R4" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="94" t="s">
+      <c r="S4" s="101" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="93" t="s">
+      <c r="V4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="93" t="s">
+      <c r="W4" s="91" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="100"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -4476,50 +4476,78 @@
       <c r="I5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="93"/>
+      <c r="J5" s="91"/>
       <c r="K5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="102"/>
-      <c r="N5" s="102"/>
-      <c r="O5" s="93"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="93"/>
-      <c r="R5" s="93"/>
-      <c r="S5" s="95"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="102"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="93"/>
-      <c r="W5" s="93"/>
+      <c r="V5" s="91"/>
+      <c r="W5" s="91"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
+      <c r="B6" s="79" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="79" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="51">
+        <v>868345031047475</v>
+      </c>
+      <c r="F6" s="65"/>
+      <c r="G6" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="65"/>
+      <c r="I6" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" s="55"/>
+      <c r="M6" s="52" t="s">
+        <v>74</v>
+      </c>
       <c r="N6" s="54"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="50"/>
-      <c r="S6" s="3"/>
+      <c r="O6" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="T6" s="27"/>
       <c r="U6" s="29"/>
-      <c r="V6" s="86" t="s">
+      <c r="V6" s="94" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -4550,7 +4578,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="29"/>
-      <c r="V7" s="87"/>
+      <c r="V7" s="95"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -4579,7 +4607,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="29"/>
-      <c r="V8" s="87"/>
+      <c r="V8" s="95"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -4608,7 +4636,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="29"/>
       <c r="U9" s="29"/>
-      <c r="V9" s="87"/>
+      <c r="V9" s="95"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -4637,7 +4665,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="29"/>
       <c r="U10" s="29"/>
-      <c r="V10" s="87"/>
+      <c r="V10" s="95"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -4666,7 +4694,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="29"/>
       <c r="U11" s="29"/>
-      <c r="V11" s="87"/>
+      <c r="V11" s="95"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -4695,7 +4723,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="29"/>
       <c r="U12" s="29"/>
-      <c r="V12" s="86" t="s">
+      <c r="V12" s="94" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -4726,7 +4754,7 @@
       <c r="S13" s="3"/>
       <c r="T13" s="29"/>
       <c r="U13" s="29"/>
-      <c r="V13" s="87"/>
+      <c r="V13" s="95"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -4755,7 +4783,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="29"/>
       <c r="U14" s="29"/>
-      <c r="V14" s="87"/>
+      <c r="V14" s="95"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -4784,7 +4812,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="29"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="87"/>
+      <c r="V15" s="95"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -4813,7 +4841,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="29"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="88"/>
+      <c r="V16" s="96"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4932,7 +4960,7 @@
       </c>
       <c r="W20" s="10">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5401,7 +5429,7 @@
       </c>
       <c r="W35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5465,7 +5493,7 @@
       </c>
       <c r="W37" s="10">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5796,7 +5824,7 @@
       </c>
       <c r="W48" s="10">
         <f>COUNTIF($D$6:$D$105,"TG102V")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6047,10 +6075,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="89" t="s">
+      <c r="V56" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="89">
+      <c r="W56" s="97">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6079,8 +6107,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="90"/>
-      <c r="W57" s="90"/>
+      <c r="V57" s="98"/>
+      <c r="W57" s="98"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -6106,8 +6134,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="91"/>
-      <c r="W58" s="91"/>
+      <c r="V58" s="99"/>
+      <c r="W58" s="99"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -7394,6 +7422,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -7404,16 +7442,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
